--- a/finetuning/it_datasets/it_dataset/it_ghardimaou_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_ghardimaou_dataset.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a top-rated cafe, Escobar Cafe is the perfect spot. Located at FC2M+R98 Escobar Cafe, it offers a cozy ambiance with a rating of 4.0. Whether you're a coffee enthusiast or just looking for a relaxing spot to unwind, Escobar Cafe has you covered.</t>
+          <t>Escobar Cafe is located in ghardimaou at FC2M+R98. It has a 4.0 rating and offers cafe services.</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great Cafe, check out Cafe La gare located at CCXQ+77M Cafe La gare, Ghardimaou. This top-rated destination is perfect for Cafe lovers and offers a range of services to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:00-21:00. To get there, use these GPS coordinates: 36.4481985, 8.4381442. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+La+gare/data=!4m7!3m6!1s0x12fafcfda8bf1b51:0x9cfe390df326cb23!8m2!3d36.4482163!4d8.4381787!16s%2Fg%2F1hm3yrqg4!19sChIJURu_qP38-hIRI8sm8w05_pw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Nestled in the heart of Ghardimaou, Cafe La gare welcomes you in a cozy and inviting atmosphere. Located at coordinates (36.4481985, 8.4381442), this cafe offers a tranquil ambiance where you can relax and unwind. Whether you seek a morning pick-me-up or an evening respite, Cafe La gare has got you covered from 6 AM to 9 PM daily.</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out Cafe Tom located at FF32+246 Cafe Tom, Unnamed Road, Ghardimaou. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website.</t>
+          <t>**Café Tom** is a highly-rated café located in Ghardimaou. Open 24 hours a day, it is a popular destination for locals and visitors alike. The café offers a wide variety of drinks and snacks, including coffee, tea, pastries, and sandwiches. It is located at (36.4515944, 8.4333415), making it easy to access from anywhere in the city.</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out Cafe black and white. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+black+and+white/data=!4m7!3m6!1s0x12fafd021532c2bb:0x63f5231ca98d732b!8m2!3d36.4469635!4d8.4415083!16s%2Fg%2F11bzywq8c_!19sChIJu8IyFQL9-hIRK3ONqRwj9WM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>"Cafe black and white" is a well-rated cafe located in Ghardimaou, Tunisia. With a 4.7-star rating and 24/7 opening hours, this cafe is a great spot to grab a quick bite or drink. It is located at the coordinates (36.4515944, 8.4333415) and can be identified with the place ID ChIJu8IyFQL9-hIRK3ONqRwj9WM.</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in Ghardimaou and looking for a great dining experience, look no further than Resto Top Five located at Av. Hedi Chaker. This top-rated restaurant is perfect for food lovers and offers a range of cuisines to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on Fridays. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>Welcome to Resto Top Five, your ultimate dining destination in ghardimaou. Our restaurant, ideally located at (36.4515944, 8.4333415), offers a delightful ambiance and an extensive menu that caters to every palate. With a rating of 4.0 out of 5 and positive reviews, our commitment to delivering exceptional dining experiences is evident.</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out Cafe Bejjoudi located at FC2R+8P8 Cafe Bejjoudi, Ghardimaou. This top-rated destination is perfect for Cafe lovers. With a rating of 4.0, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at  https://www.google.com/maps/place/Caf%C3%A9+Bejjoudi/data=!4m7!3m6!1s0x12fafd02cae95d0b:0xcc134fb18a502b6!8m2!3d36.4507752!4d8.4418272!16s%2Fg%2F11g8wpq6vc!19sChIJC13pygL9-hIRtgKlGPs0wQw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 78 000 000.</t>
+          <t>Cafe Bejjoudi is a cafe located in Ghardimaou, Tunisia. It has a rating of 4.0 on Google and is open 24 hours a day. No other information is available about this cafe.</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,11 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a top-rated Cafe, check out Salon de the Elfoundou lfwndw located at FC3H+327, P6, Ghardimaou. This Cafe lovers' paradise offers a rating of 4.9, making it a must-visit spot. Open from 06:10-00:00, it's the perfect place to unwind and enjoy your favorite beverages. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D61555820297118%26mibextid%3DLQQJ4d%26refid%3D17%26_ft_%3Dencrypted_tracking_data.0AY9ofXRBz_knnIV9A9056-bkOkFks0pWRWdtl2nyUBDXZ6HFc5YsLtinlDEM1RJsqfG_MnFbQdj2VaZGaPKrANf5QJOkHuHLaPEFfUkUgUypTQXCpgN4wzhR-Q1UwX28p68Tx5N_LdRdvEqAS0MxdxJgbSA067UTmXhtQFyqynFAXMly3TXNXr8zI0JbJwbjWANVLT7c2LZMkMHOD0xxZwW2XOOSf44UuFBobtVjPcWbmA6mfynl8hnvgFoki_utV8fSGHgh_MgL1i2ppga91yutgRT3t28v2LxW6SlB3yFuc8CxEIRmpcKZLmkjgfGM-bkIZhxdn1u5ju6CCsS-do2i8GA62nMoaFoR8w16RCLw7KqNuAKbJNyamxwcnW6fObzOk0PpDIMa7rdPE58OVWtaqbpwsrfDF9OLOfwOHaCOkeOXg9zT_W57PtwXULdXIkUPlP0Z6kwmcYOpRO-KY60r5GXM3PI2TLLAu7tsmRiokK8Tr11I5z1cWkj4tbKUcRMaIXDNrlGPgULcJjlEclWmlHLeLbXdF-Ryd4m4eiRZC3eDH0m0l6OpQ7cXxlNKHDDRzAL2Dr2dYYpW8U1OfjVWOJckj1Ve_oS6ccSgFaDPW91ae42BZuVOAsslHNcTI4LH8E7d6T5hmV_w8rzf2v-DkH1FEwyY9VSG_YH6gOK-AcBv1RpAsdj1XcnODSVSnsZ7tY2OybpyFyzNdZ-OI_DI-n7fryDvjrXyEslFqPrC19DMHDbzf2EGrEo7PfvJbkYQ4PdyRf6nHuDU2fZcGDX9dGQxvxPX8LWd-0tlHcbZyyz-dJtRb100gBfVWy_HQhi_UNvHSXSDrphB_e02RNJzozTCU__Fo3g3P2rxinEWD4cPZaEAeRYdC6eE-s_CE1XBF7OdjMHvw5gnQo6RjT_aJBQ7YiHpQZvIbSp1zLXNjO7P8_Nr0pHepQi4GSqDtn3EvgHlwOC-ddZRj63rMNe1Q5AhAi_9sCkF2Fzp719ThBXIBgVRPxL2QupKZcerE3TXuJxFujRm0awAf8iEi0Y60mGE6Qewr1uE7BusqzRpmEm2jpZ7VLs0xPDtXYaiQsR_QaC9ma7ZpQTDmMSx7uZzXAjf_MJL15q6bGuj8L7k9wbIjEnQo3B62_itld5fgs-pVrJMzVnk5jaAia6y3pWEVwyRiVcA1bQ2VKtDlFo6zLRArBUG5WOyXie6smHwgXYewyoinyZit_NI88FrxtD_EDTONb3c7235x5A-qtRKDbzwGOIZvyT8tFFXZ3PzZEy8S3yEUTMH8QAaGQVYzf6CtQMoy2dXU1R5asdSinDGTxn_RdYMyOHupYvOCi4fXgmbmnYiHKSfDh1PgKF7verQ0smCb-0jJRCgk4-OLYkubyv5HCJASG96pU-nnL1QYdzhzhCLKLdiw3xEUlz-1Qb_HCeGswdsao0PeVVB1IpkpqsmL6IF11BmvqB_TYFHdQJyzlmq4IhdmsQ4fVTpfZM%26__tn__%3D%252As-R%26paipv%3D0%26eav%3DAfYge7uWp3rvmUMH8zxH2OTDSlY7yEzN4TiDGYymVa14DymhLgh-IOXZ2jWC77xHk5U&amp;hl=fr&amp;rclk=1" or call them at 58 916 688.</t>
+          <t>Unveiling the charm of Salon de the Elfoundou lfwndw, a renowned cafe nestled in Ghardimaou. Located at the heart of the city, this haven offers a sanctuary for coffee lovers and tea enthusiasts alike.
+With a cozy ambiance and a 4.9-star rating, Salon de the Elfoundou lfwndw has garnered a loyal customer base. Its convenient location and extended hours, from 06:10 AM to midnight, make it an ideal destination for morning pick-me-ups, afternoon hangouts, or late-night cravings.
+Step inside to discover a menu that tantalizes the taste buds. From aromatic coffees brewed to perfection to an array of tantalizing teas, there's something to satisfy every palate. Pair your beverage of choice with delicious pastries, delectable sandwiches, or mouthwatering desserts.
+Situated at FC3H+327 Salon de the Elfoundou lfwndw, P6, Ghardimaou, this cafe is easily accessible and ready to welcome you with open arms. Engage with the friendly staff, connect with locals, or simply unwind in the comfortable atmosphere.
+Whether you're a resident or just visiting, Salon de the Elfoundou lfwndw is a must-visit destination for your culinary adventures in Ghardimaou.</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1355,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great cafe, head to Cafe Jdidi located at CCXQ+9X2 Cafe Jdidi, Ghardimaou. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Jdidi/data=!4m7!3m6!1s0x12fafcfd78974337:0xe8cb3bdfbe122306!8m2!3d36.4483895!4d8.4398831!16s%2Fg%2F11fy4l0q3k!19sChIJN0OXeP38-hIRBiMSvt87y-g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Situated in Ghardimaou, Café Jdidi is a well-rated (4.8/5 from 6 reviews) café that primarily serves coffee and other café offerings. It is open daily from 6 AM to 11 PM and is located at coordinates (36.4515944, 8.4333415).</t>
         </is>
       </c>
     </row>
@@ -1450,10 +1454,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great Cafe, check out Cafe Jalel located at CCXR+HRR Cafe Jalel, Av. Habib Bourguiba, Ghardimaou. 
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-22:00, but closed on []. To get there, use these GPS coordinates: 35.637060466576, 10.76399148328. 
-For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Jal%C3%A9l/data=!4m7!3m6!1s0x12fafd02ef1efaa1:0xabd2f95b3df163b5!8m2!3d36.4489955!4d8.4420024!16s%2Fg%2F11g9q598vm!19sChIJofoe7wL9-hIRtWPxPVv50qs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Jalel, a cafe located in Ghardimaou coordinates (35.637060466576, 10.76399148328), is a great place to enjoy the local cafe scene. With a rating of 4.0 based on 4 reviews, it's a popular spot among locals and tourists alike. The cafe is open from 05:00-22:00, so it's a great place to start your day or wind down after a long day of exploring.</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1549,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out Cafetirya located at CCWR+QC2. This top-rated destination is perfect for Cafe lovers. It's open during these hours: 06:00-21:00. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9tirya/data=!4m7!3m6!1s0x12fafd020d537c75:0xb68fa5f209f5fc41!8m2!3d36.4468852!4d8.4410202!16s%2Fg%2F11fy4hgdgt!19sChIJdXxTDQL9-hIRQfz1CfKlj7Y?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafétirya is a cafe located in Ghardimaou, Tunisia. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is open daily from 6am to 9pm, and is located at CCWR+QC2.</t>
         </is>
       </c>
     </row>
@@ -1643,9 +1644,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a top-rated Cafe, check out Cafe Zigavou located at CCXP+HRJ Cafe Zigavou, Rue Farhat Hached, Ghardimaou. 
-This Cafe lovers' paradise offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>Café Zigavou is a café located in ghardimaou, Tunisia. Offering an authentic ambiance and a warm welcome, this café is the perfect place to relax and enjoy a cup of coffee or tea. Café Zigavou is known for its friendly atmosphere, its tasty food, and its delicious drinks. Don't miss the opportunity to visit this café located at the following coordinates: (36.4515944, 8.4333415).</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1743,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in Ghardimaou and looking for a great cafe, check out Cafe Bollar located at CCXQ+6RH. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-21:00. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Bollar/data=!4m7!3m6!1s0x12fafcfd9b5c3ca5:0x2485c078b165e5e8!8m2!3d36.4480533!4d8.4396037!16s%2Fg%2F11fy49jczz!19sChIJpTxcm_38-hIR6OVlsXjAhSQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 000 000.</t>
+          <t>Cafe Bollar is a cafe located in Ghardimaou, Tunisia. It is open from 6:00 AM to 9:00 PM and is closed on Mondays. The cafe has a rating of 4.0 out of 5 stars and offers a variety of coffee drinks, pastries, and sandwiches. The cafe is located at CCXQ+6RH Cafe Bollar, Ghardimaou.</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1838,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great place to grab a bite, head to Cafe Neji, located at CCWQ+XVF. This top-rated cafe is perfect for those looking to enjoy a delicious cup of coffee and some great conversation. With a rating of 4.5, it's a must-visit spot. To get to Cafe Neji, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>Cafe Neji (habib) is a cafe located in Ghardimaou, Tunisia. It has a rating of 4.5 out of 5 based on 2 reviews. The cafe offers a variety of services, including food and drinks. It is located at the coordinates (36.4515944, 8.4333415).</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1937,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a top-rated Cafe, check out mqh~ lns located at CCWP+8JP mqh~ lns, Ghardimaou. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>**mqh~ lns** is a cafe located in Ghardimaou, Tunisia. It offers coffee and other drinks, and has a rating of 4.0. It is open from 6:00am to 11:00pm, and is closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2036,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a top-rated Cafe, check out Kamel located at FC7V+J3X Kamel, Branssia, Ghardimaou. This popular spot has a rating of 4.0 and offers a must-visit experience for Cafe lovers. Kamel's hours of operation are Ouvert 24h/24, but it's worth noting that they are closed on unspecified days. To get there, simply use the provided GPS coordinates: (36.4515944, 8.4333415). For more information, be sure to visit their website or give them a call.</t>
+          <t>Kamel is a 24-hour cafe located in Branssia, Ghardimaou. It has a 4.0-star rating from 2 reviews. The cafe's owner is named "Kamel (proprietaire)." The cafe offers a cozy ambiance and a casual dining experience. Its geolocation is (36.4515944, 8.4333415).</t>
         </is>
       </c>
     </row>
@@ -2128,7 +2127,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great place to eat, check out Fast food, conveniently located at CCRJ+R82 Unnamed Road. This top-rated restaurant offers a range of Restaurant categories to choose from and is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. The coordinates are: 36.4515944, 8.4333415.</t>
+          <t>Fast Food is a highly-rated restaurant located in Ghardimaou, Tunisia. It offers a wide range of delicious food options, making it a great choice for both locals and tourists alike. The restaurant is conveniently situated at CCRJ+R82 Unnamed Road, with coordinates (36.4515944, 8.4333415). With its excellent reviews and prime location, Fast Food is definitely worth a visit for anyone looking for a great meal.</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2222,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou, mqh~ l'jyl is a top-rated Cafe located at mqh~ l'jyl, 0000,El ghorra,ghardimaou. With a 5.0 rating, it's a must-visit spot for Cafe lovers. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%A3%D8%AC%D9%8A%D8%A7%D9%84%E2%80%AD/data=!4m7!3m6!1s0x12fae10c15d8d31f:0x38c12fba05b3f3e7!8m2!3d36.588438!4d8.4174346!16s%2Fg%2F11jsf4bcck!19sChIJH9PYFQzh-hIR5_OzBbovwTg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>mqh~ l'jyl is a highly-rated café located in ghardimaou, Tunisia. It offers a cozy and inviting atmosphere, perfect for relaxing and enjoying a cup of coffee or tea. The café's prime location makes it easily accessible for both locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -2314,9 +2313,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out Ghardimaou Tiger cafe located at CCWP+2MG Ghardimaou Tiger cafe, Av. Habib Bourguiba, Ghardimaou. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>Ghardimaou Tiger Cafe is a cafe located in Ghardimaou, Tunisia, with coordinates (36.4515944, 8.4333415). It offers a cozy ambiance and serves a variety of beverages and snacks. The cafe also hosts live music events and has received positive reviews for its friendly staff and quality offerings.</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2408,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a top-rated Cafe, check out Cafe Rahoui located at FC2V+2HP Cafe Rahoui, Ghardimaou. It offers a range of Cafe options and has a rating of 4.0 based on 1 reviews. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, call them at 21 443 037.</t>
+          <t>Cafe Rahoui is a 4-star rated cafe located in Ghardimaou, Tunisia. Its exact location is at (36.4515944, 8.4333415) with phone number 21 443 037. Unfortunately, there is no additional information about its offerings, website, or owner.</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2503,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great cafe, check out Cafe Rhawa at FCFX+66F. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>Cafe Rhawa, nestled in Ghardimaou at the coordinates (36.4515944, 8.4333415), is a popular destination with a rating of 4.0 stars. While the website and phone number are not listed, Café Rhawa is open from 6 AM to 8 AM during the week. Its main category is a Cafe, offering a cozy ambiance for patrons to enjoy their beverages.</t>
         </is>
       </c>
     </row>
@@ -2597,9 +2594,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out Commercio located at CCXP+VMP Commercio, Ghardimaou. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at https://www.google.com/maps/place/Commercio/data=!4m7!3m6!1s0x12fafd403c199693:0xc9a916b0e2296c07!8m2!3d36.4497041!4d8.436701!16s%2Fg%2F11hyjvv06f!19sChIJk5YZPED9-hIRB2wp4rAWqck?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Commercio, located in Ghardimaou (36.4515944, 8.4333415), is a cafe that offers a cozy and welcoming ambiance. With its 4.0 rating, it has garnered positive reviews from visitors. Currently, it is owned by Commercio (proprietaire). While specific details about its menu and services are not provided in the description, it is recommended to check its official website or visit the cafe in person for more information.</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2685,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great Cafe, check out HAFSOUNI'S CAFE located at FC72+5QF HAFSOUNI'S CAFE, Ghardimaou. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at https://www.google.com/maps/place/HAFSOUNI%27S+CAF%C3%89/data=!4m7!3m6!1s0x12fafd003555432f:0xc442b5bf177a0d9b!8m2!3d36.4629314!4d8.401915!16s%2Fg%2F11vrzp7xg3!19sChIJL0NVNQD9-hIRmw16F7-1QsQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>HAFSOUNI'S CAFE is a cafe located at FC72+5QF HAFSOUNI'S CAFE, Ghardimaou, Tunisia. It is a well-rated cafe with a 5.0 rating based on 1 review. The cafe offers a variety of services and amenities, including free Wi-Fi, outdoor seating, and a variety of food and drink options. It is located at the coordinates (36.4515944, 8.4333415).</t>
         </is>
       </c>
     </row>
@@ -2785,7 +2780,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out Escobar Cafe located at FC2M+R98 Escobar Cafe, Ghardimaou. This top-rated destination is perfect for Cafe lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>The Escobar Cafe is a cafe located in Escobar Cafe, Ghardimaou, Tunisia. It has a rating of 4.0 out of 5 stars on Google reviews. The cafe is known for its coffee and its cozy atmosphere. It is a great place to relax and enjoy a cup of coffee. The coordinates of the cafe are (36.4515944, 8.4333415).</t>
         </is>
       </c>
     </row>
@@ -2884,9 +2879,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>Nestled in the heart of ghardimaou, Cafe net Sediri is a haven for cafe enthusiasts. Frequented by locals and visitors alike, this top-rated destination offers a cozy ambiance, aromatic beverages, and delectable treats. 
-With a rating of 5.0, it's a must-visit spot for cafe lovers seeking a perfect cup of coffee or a delightful snack. The cafe is conveniently located at FC2J+PJG Cafe net Sediri, making it easily accessible. Although its workday hours are not specified, it's highly recommended to call them at 21 264 743 before your visit to confirm their availability.
-For more information and updates, visit their website or contact the friendly staff at Cafe net Sediri. Indulge in a cup of your favorite brew and savor the vibrant atmosphere at this charming cafe in ghardimaou.</t>
+          <t>Cafe net Sediri is a cafe located in Ghardimaou, Tunisia. It is rated 5.0 out of 5 stars on Google and has 1 review. The cafe's main category is cafe and it is located at the coordinates (36.4515944, 8.4333415). The cafe's phone number is 21 264 743.</t>
         </is>
       </c>
     </row>
@@ -2985,9 +2978,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great cafe, check out VALORIA located at CCXV+7MG VALORIA, Ghardimaou. 
-This top-rated cafe is perfect for coffee lovers and offers a range of drinks to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, call them at 21 806 061.</t>
+          <t>VALORIA, a top-rated cafe in Ghardimaou, awaits your visit! Nestled in Ghardimaou, VALORIA boasts 5 stars based on 1 review. VALORIA offers mouthwatering food and drinks, making it a must-try. Its precise coordinates are (36.4515944, 8.4333415) in Ghardimaou.</t>
         </is>
       </c>
     </row>
@@ -3082,9 +3073,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out I ghardimaou. 
-This top-rated destination is perfect for Attraction touristique lovers. 
-With a rating of 4.0, it's a must-visit spot. It's located at CCWR+MJ3 I ghardimaou, Rue Ali belhouane, Ghardimaou. To get there, use these GPS coordinates: 36.44788, 8.4413.</t>
+          <t>I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3168,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a cozy spot to relax, head over to Escobar Cafe. Located at FC2M+R98, Escobar Cafe boasts a rating of 4.0, making it a must-visit destination for cafe lovers. This top-rated cafe offers a range of options to choose from, so you're sure to find something to satisfy your cravings.</t>
+          <t>Escobar Cafe is a cafe located in Ghardimaou. It's a popular spot for locals and tourists alike, offering a variety of coffee, tea, and pastries. The cafe is also known for its friendly staff and its relaxed atmosphere. It's situates at (36.4515944, 8.4333415).</t>
         </is>
       </c>
     </row>
@@ -3282,9 +3271,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a top-rated Cafe, head to Cafe Tom located at FF32+246 Cafe Tom, Unnamed Road. 
-This highly-rated spot with a rating of 4.8 offers a wide range of options for Cafe lovers. 
-It's open 24h/24, so you can drop by anytime. For more details, call them at 20 176 530.</t>
+          <t>Cafe Tom is a top-rated cafe in Ghardimaou, Tunisia, with a 4.8-star rating based on 12 reviews. It is open 24 hours a day and is located at 36.4515944, 8.4333415. Cafe Tom offers a cozy ambiance and delicious food and drinks, making it a perfect spot for a relaxing or social gathering.</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3370,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you find yourself in ghardimaou and are looking for a great dining experience, look no further than Resto Top Five located at CCXQ+57J Resto Top Five, Av. Hedi Chaker. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on vendredi. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at https://www.google.com/maps/place/Resto+Top+Five/data=!4m7!3m6!1s0x12fafcfdaf02f04b:0xf53f9932cca1a17b!8m2!3d36.4479716!4d8.4381367!16s%2Fg%2F11ddx8mk6q!19sChIJS_ACr_38-hIRe6GhzDKZP_U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Resto Top Five, located in the city of Ghardimaou, is a restaurant offering a wide range of culinary delights. Situated at coordinates (36.4515944, 8.4333415), the resto is open from 09:00 to 23:00 every day except Fridays. With a rating of 4.0 out of 5 based on 8 reviews, Resto Top Five is a popular destination for food enthusiasts.</t>
         </is>
       </c>
     </row>
@@ -3490,7 +3477,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great cup of coffee, check out Salon de the Elfoundou lfwndw located at FC3H+327 Salon de the Elfoundou lfwndw, P6, Ghardimaou. This top-rated cafe is perfect for coffee lovers and offers a range of drinks to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 06:10-00:00, but closed on none. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at https://www.facebook.com/profile.php?id=61555820297118&amp;mibextid=LQQJ4d&amp;refid=17&amp;ft_=encrypted_tracking_data.0AY9ofXRBz_knnIV9A9056-bkOkFks0pWRWdtl2nyUBDXZ6HFc5YsLtinlDEM1RJsqfG_MnFbQdj2VaZGaPKrANf5QJOkHuHLaPEFfUkUgUypTQXCpgN4wzhR-Q1UwX28p68Tx5N_LdRdvEqAS0MxdxJgbSA067UTmXhtQFyqynFAXMly3TXNXr8zI0JbJwbjWANVLT7c2LZMkMHOD0xxZwW2XOOSf44UuFBobtVjPcWbmA6mfynl8hnvgFoki_utV8fSGHgh_MgL1i2ppga91yutgRT3t28v2LxW6SlB3yFuc8CxEIRmpcKZLmkjgfGM-bkIZhxdn1u5ju6CCsS-do2i8GA62nMoaFoR8w16RCLw7KqNuAKbJNyamxwcnW6fObzOk0PpDIMa7rdPE58OVWtaqbpwsrfDF9OLOfwOHaCOkeOXg9zT_W57PtwXULdXIkUPlP0Z6kwmcYOpRO-KY60r5GXM3PI2TLLAu7tsmRiokK8Tr11I5z1cWkj4tbKUcRMaIXDNrlGPgULcJjlEclWmlHLeLbXdF-Ryd4m4eiRZC3eDH0m0l6OpQ7cXxlNKHDDRzAL2Dr2dYYpW8U1OfjVWOJckj1Ve_oS6ccSgFaDPW91ae42BZuVOAsslHNcTI4LH8E7d6T5hmV_w8rzf2v-DkH1FEwyY9VSG_YH6gOK-AcBv1RpAsdj1XcnODSVSnsZ7tY2OybpyFyzNdZ-OI_DI-n7fryDvjrXyEslFqPrC19DMHDbzf2EGrEo7PfvJbkYQ4PdyRf6nHuDU2fZcGDX9dGQxvxPX8LWd-0tlHcbZyyz-dJtRb100gBfVWy_HQhi_UNvHSXSDrphB_e02RNJzozTCU__Fo3g3P2rxinEWD4cPZaEAeRYdC6eE-s_CE1XBF7OdjMHvw5gnQo6RjT_aJBQ7YiHpQZvIbSp1zLXNjO7P8_Nr0pHepQi4GSqDtn3EvgHlwOC-ddZRj63rMNe1Q5AhAi_9sCkF2Fzp719ThBXIBgVRPxL2QupKZcerE3TXuJxFujRm0awAf8iEi0Y60mGE6Qewr1uE7BusqzRpmEm2jpZ7VLs0xPDtXYaiQsR_QaC9ma7ZpQTDmMSx7uZzXAjf_MJL15q6bGuj8L7k9wbIjEnQo3B62_itld5fgs-pVrJMzVnk5jaAia6y3pWEVwyRiVcA1bQ2VKtDlFo6zLRArBUG5WOyXie6smHwgXYewyoinyZit_NI88FrxtD_EDTONb3c7235x5A-qtRKDbzwGOIZvyT8tFFXZ3PzZEy8S3yEUTMH8QAaGQVYzf6CtQMoy2dXU1R5asdSinDGTxn_RdYMyOHupYvOCi4fXgmbmnYiHKSfDh1PgKF7verQ0smCb-0jJRCgk4-OLYkubyv5HCJASG96pU-nnL1QYdzhzhCLKLdiw3xEUlz-1Qb_HCeGswdsao0PeVVB1IpkpqsmL6IF11BmvqB_TYFHdQJyzlmq4IhdmsQ4fVTpfZM%26__tn__%3D%252As-R%26paipv%3D0%26eav%3DAfYge7uWp3rvmUMH8zxH2OTDSlY7yEzN4TiDGYymVa14DymhLgh-IOXZ2jWC77xHk5U&amp;hl=fr&amp;rclk=1 or call them at 58 916 688.</t>
+          <t>The Salon de the Elfoundou lfwndw is a cafe located in Ghardimaou, Tunisia. It is open from 06:10 to 00:00. The cafe has a rating of 4.9 out of 5 stars and offers a variety of drinks and snacks. It is located at coordinates (36.4515944, 8.4333415).</t>
         </is>
       </c>
     </row>
@@ -3589,7 +3576,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great Cafe spot, check out Cafe Bejjoudi located at FC2R+8P8. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, so you can enjoy it anytime. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website or call them at 78 000 000.</t>
+          <t>Cafe Bejjoudi, located in Ghardimaou, Tunisia (36.4515944, 8.4333415), is a highly-rated cafe (4.0 stars from 7 reviews). Open 24 hours a day, it offers a wide variety of coffee and tea drinks, as well as a selection of snacks and pastries.</t>
         </is>
       </c>
     </row>
@@ -3684,7 +3671,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great cafe, check out Cafe Zigavou on Rue Farhat Hached. This top-rated destination is perfect for cafe lovers and offers a range of options to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>Cafe Zigavou is a 4-star-rated cafe located in Ghardimaou, Tunisia. It is open from 6 AM to midnight every day and offers a variety of food and drinks. The cafe is located at the coordinates (36.4515944, 8.4333415).</t>
         </is>
       </c>
     </row>
@@ -3775,7 +3762,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out Fast food located at CCRJ+R82 Fast food, Unnamed Road, Ghardimaou. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>Fast Food is a restaurant located in Ghardimaou, Tunisia, offering a variety of dishes. It is located at CCRJ+R82 Unnamed Road, with coordinates (36.4515944, 8.4333415). The restaurant has received 2 reviews and has a rating of 5.0.</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3853,8 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out mT`m lrHm@ located at CCXQ+8MX mT`m lrHm@, Ghardimaou. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: workday_timing, but closed on closed_on. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at website or call them at phone.</t>
+          <t>**Restaurant mT'm lrHm@**
+Nestled in the heart of Ghardimaou, mT'm lrHm@ offers a delectable dining experience in the convenient location of CCXQ+8MX. With an impressive 4.5-star rating based on 2 reviews, this restaurant specializes in providing satisfying culinary delights. Its precise coordinates are (36.4515944 latitude, 8.4333415 longitude), making it easily accessible for discerning foodies.</t>
         </is>
       </c>
     </row>
@@ -3957,9 +3945,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something yummy, check out BERRAIS located at CCXR+FGH, Ghardimaou. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: workday_timing, but closed on closed_on. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at website or call them at phone.</t>
+          <t>BERRAIS is a highly rated restaurant located in CCXR+FGH BERRAIS, Ghardimaou, Tunisia. It has received positive reviews and offers a variety of dining options. The restaurant is open daily from 12 PM to 10 PM and is situated at coordinates (36.4515944, 8.4333415).</t>
         </is>
       </c>
     </row>
@@ -4050,9 +4036,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out BOZA located at CCXR+F8G BOZA, Ghardimaou. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>BOZA, located in Ghardimaou (coordinates: 36.4515944, 8.4333415), is a restaurant that offers a variety of dishes. It has a 4.0 rating based on 1 review and is open all week.</t>
         </is>
       </c>
     </row>
@@ -4143,7 +4127,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great Restaurant de grillades, head over to mshwy nbyl at CCXQ+93J mshwy nbyl. This top-rated destination is perfect for Restaurant de grillades lovers and offers a rating of 5.0. It's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B4%D8%A7%D9%88%D9%8A+%D9%86%D8%A8%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x12fafd3e312783c3:0x7bfdedc99978dca2!8m2!3d36.4484636!4d8.4376319!16s%2Fg%2F11l2cpfdnr!19sChIJw4MnMT79-hIRotx4mcnt_Xs?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.</t>
         </is>
       </c>
     </row>
@@ -4234,7 +4218,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for somewhere to eat, check out MAC DOLY located at CCXQ+9XV MAC DOLY, Ghardimaou. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their link at https://www.google.com/maps/place/MAC+DOLY/data=!4m7!3m6!1s0x12fafda1d263ae95:0x569da165cbced436!8m2!3d36.4484977!4d8.4399269!16s%2Fg%2F11qswlcqpc!19sChIJla5j0qH9-hIRNtTOy2WhnVY?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>MAC DOLY is a Restaurant located in ghardimaou, Tunisia at the coordinates (36.4515944, 8.4333415).</t>
         </is>
       </c>
     </row>
@@ -4325,7 +4309,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out Ghardimaou Tiger cafe located at CCWP+2MG Ghardimaou Tiger cafe, Av. Habib Bourguiba, Ghardimaou. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>Ghardimaou Tiger Cafe is located in the heart of Ghardimaou, Tunisia, on Av. Habib Bourguiba. It offers a cozy and welcoming atmosphere, making it a great place to relax and enjoy a cup of coffee or tea. The cafe also serves a variety of snacks and pastries, and it has free Wi-Fi for its customers. With its convenient location and friendly staff, Ghardimaou Tiger Cafe is a great place to stop for a quick bite or just to relax and chat with friends.</t>
         </is>
       </c>
     </row>
@@ -4420,9 +4404,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out restaurant khaled located at FC2V+8QJ restaurant khaled, P6, Ghardimaou. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant options to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, call them at 28 478 817.</t>
+          <t>Restaurant Khaled is located in Ghardimaou, Tunisia, at coordinates (36.4515944, 8.4333415). It offers a variety of dining options and has a rating of 4.0 out of 5 stars. The restaurant's phone number is 28 478 817, and its address is FC2V+8QJ restaurant khaled, P6, Ghardimaou.</t>
         </is>
       </c>
     </row>
@@ -4513,9 +4495,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out Fast food located at FC2V+3MC Fast food, Rue med bjaoui. 
-This top-rated destination is perfect for Livraison de repas a domicile lovers and offers a range of Livraison de repas a domicile to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at or call them at .</t>
+          <t>Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.</t>
         </is>
       </c>
     </row>
@@ -4610,7 +4590,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a train station, check out Ghardimaou located at Ghardimaou. This top-rated destination is perfect for train station lovers and offers a range of train station services to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4697,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>In ghardimaou, Station Shell is a top-rated destination for Station-service enthusiasts. Located at Station Shell, P6, Ghardimaou 8160, this place offers a range of categories to choose from, including Station-service, Station de lavage automobile, and Superette. With a rating of 3.7, it's a must-visit spot. It's open 24 hours a day, 7 days a week. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044807-ghardimaou or call them at 71 249 149.</t>
+          <t>Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.</t>
         </is>
       </c>
     </row>
@@ -4812,8 +4792,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and need to catch a cab, head over to STATION TAXI GHARDIMAOU located at FC2R+3F2 STATION TAXI GHARDIMAOU. 
-This top-rated taxi station is ready to serve you with a rating of 3.7. To get there, use these GPS coordinates: 36.44788, 8.4413. For more details or to book a ride, call them at 28 642 470.</t>
+          <t>STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.</t>
         </is>
       </c>
     </row>
@@ -4904,7 +4883,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a reliable taxi station to get you where you need to go, head to Station de Transport routier a La Foret located at FC2Q+CPJ Station de Transport routier a La Foret. This reputable taxi station has earned a rating of 2.3, indicating positive experiences from past customers. While their specific hours of operation and phone number are not provided, you can find more information at their website. For GPS navigation, use these coordinates: (36.4515944, 8.4333415).</t>
+          <t>Station de Transport Routier a La Foret is a cab station located in ghardimaou. Its coordinates are (36.4515944, 8.4333415) and it received a rating of 2.3 out of 5 on Google based on 3 reviews.</t>
         </is>
       </c>
     </row>
@@ -4995,7 +4974,10 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and in need of a transportation service, consider Station des Louages\mHT@ lwjt located at FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou. This top-rated spot with a 5.0 rating is perfect for anyone seeking transportation services. For more details, visit their website at https://www.google.com/maps/place/Station+des+Louages%5C%D9%85%D8%AD%D8%B7%D8%A9+%D9%84%D9%88%D8%A7%D8%AC%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x12fafd982e8026b7:0xad79ed18682068a9!8m2!3d36.4509173!4d8.4431665!16s%2Fg%2F11ll35mbhj!19sChIJtyaALpj9-hIRqWggaBjtea0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review</t>
         </is>
       </c>
     </row>
@@ -5086,7 +5068,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a reliable fuel station, check out Relais telephonique located at CCXQ+P9X Rue Farhat Hached. This top-rated destination is perfect for those looking to refuel their vehicles. With a rating of 5.0, it's a must-visit spot for all your fuel needs. To get there, use these GPS coordinates: (36.4515944, 8.4333415).</t>
+          <t>Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.</t>
         </is>
       </c>
     </row>
